--- a/biology/Médecine/1443_en_santé_et_médecine/1443_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1443_en_santé_et_médecine/1443_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1443_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1443_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1443 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1443_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1443_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 août : fondation de l'hôtel-Dieu de Beaune, en Bourgogne, par le chancelier Rolin[1].
-Fondation à Winchester dans le Hampshire en Angleterre, par le cardinal Beaufort, de l'almshouse of Noble Poverty at St. Cross (en) (« maison d'aumône de la Noble Pauvreté de Sainte-Croix[2] »).
-1442-1443 : fondation de l'hôpital de Vesoul, en Bourgogne, par Jean Sardon, licencié en droit[3],[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 août : fondation de l'hôtel-Dieu de Beaune, en Bourgogne, par le chancelier Rolin.
+Fondation à Winchester dans le Hampshire en Angleterre, par le cardinal Beaufort, de l'almshouse of Noble Poverty at St. Cross (en) (« maison d'aumône de la Noble Pauvreté de Sainte-Croix »).
+1442-1443 : fondation de l'hôpital de Vesoul, en Bourgogne, par Jean Sardon, licencié en droit,.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1443_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1443_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Thomas de Sazanne, qui deviendra pape sous le nom de Nicolas V, retrouve les huit livres du De medicina de Celse († 50[5]).
-En Chine, l'empereur Ming Yingsong fait copier en bronze le zhenjiu tongren, mannequin d'acupuncture conçu sous les Song[6].
-1443-1477 : en Corée, commencée sous le règne de Sejong le Grand, rédaction des trois cent soixante-cinq volumes de l'Uibang Yuchwi (« Collection classifiée de prescriptions médicales »), encyclopédie de médecine traditionnelle où sont compilés plus de cent cinquante ouvrages[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thomas de Sazanne, qui deviendra pape sous le nom de Nicolas V, retrouve les huit livres du De medicina de Celse († 50).
+En Chine, l'empereur Ming Yingsong fait copier en bronze le zhenjiu tongren, mannequin d'acupuncture conçu sous les Song.
+1443-1477 : en Corée, commencée sous le règne de Sejong le Grand, rédaction des trois cent soixante-cinq volumes de l'Uibang Yuchwi (« Collection classifiée de prescriptions médicales »), encyclopédie de médecine traditionnelle où sont compilés plus de cent cinquante ouvrages,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1443_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1443_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 novembre : Antonio Benivieni (mort  en 1502), médecin florentin, pionnier de l'autopsie[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 novembre : Antonio Benivieni (mort  en 1502), médecin florentin, pionnier de l'autopsie.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1443_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1443_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant le 15 février : Albert Ditmari (né à une date inconnue), docteur en médecine et maître ès arts, médecin ordinaire d'Élisabeth de Luxembourg, duchesse de Brabant, au service de son fils Jean, puis de Philippe le Bon[10].
-À Pâques : Abraham, dit Jean de Saint-Nicolas (né à une date inconnue), médecin à la cour de Milan puis auprès d'Amédée de Talaru, archevêque de Lyon ; exécuté pour sorcellerie[11].
-Avant 1443 : Anselme de Parme (né à une date inconnue), musicien, astrologue et médecin[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant le 15 février : Albert Ditmari (né à une date inconnue), docteur en médecine et maître ès arts, médecin ordinaire d'Élisabeth de Luxembourg, duchesse de Brabant, au service de son fils Jean, puis de Philippe le Bon.
+À Pâques : Abraham, dit Jean de Saint-Nicolas (né à une date inconnue), médecin à la cour de Milan puis auprès d'Amédée de Talaru, archevêque de Lyon ; exécuté pour sorcellerie.
+Avant 1443 : Anselme de Parme (né à une date inconnue), musicien, astrologue et médecin.</t>
         </is>
       </c>
     </row>
